--- a/March Madness/March Madness Ken Pom/AG0219stacked.xlsx
+++ b/March Madness/March Madness Ken Pom/AG0219stacked.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\My Drive\7) Programming\B) RStudio\MyProjects-master\March Madness\March Madness Ken Pom\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7DE8330E-B7CD-4AD4-8DEE-A02A275FFB89}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9D880A3-25FB-4BD4-9FA8-42DE7760B038}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12375" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AG0219stacked" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
@@ -1515,11 +1515,11 @@
   <autoFilter ref="A1:O2359" xr:uid="{00000000-0009-0000-0100-000001000000}">
     <filterColumn colId="2">
       <filters>
-        <filter val="2017"/>
+        <filter val="2002"/>
       </filters>
     </filterColumn>
   </autoFilter>
-  <sortState ref="A1958:O2091">
+  <sortState ref="A2:O129">
     <sortCondition ref="A1:A2359"/>
   </sortState>
   <tableColumns count="15">
@@ -1842,8 +1842,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O2359"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2063" workbookViewId="0">
-      <selection activeCell="A2087" sqref="A2087"/>
+    <sheetView tabSelected="1" topLeftCell="A104" workbookViewId="0">
+      <selection activeCell="A126" sqref="A126"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1911,7 +1911,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>-1</v>
       </c>
@@ -1955,7 +1955,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>-1</v>
       </c>
@@ -1999,12 +1999,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
       <c r="B4" s="1">
-        <v>37330</v>
+        <v>37329</v>
       </c>
       <c r="C4">
         <v>2002</v>
@@ -2013,7 +2013,7 @@
         <v>1</v>
       </c>
       <c r="E4" t="s">
-        <v>16</v>
+        <v>49</v>
       </c>
       <c r="F4" t="s">
         <v>21</v>
@@ -2022,33 +2022,33 @@
         <v>1</v>
       </c>
       <c r="H4" t="s">
-        <v>23</v>
+        <v>75</v>
       </c>
       <c r="I4" t="s">
         <v>24</v>
       </c>
       <c r="J4">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="K4">
-        <v>29.25</v>
+        <v>34.19</v>
       </c>
       <c r="M4" t="s">
-        <v>23</v>
+        <v>75</v>
       </c>
       <c r="N4" t="s">
         <v>21</v>
       </c>
       <c r="O4">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1</v>
       </c>
       <c r="B5" s="1">
-        <v>37330</v>
+        <v>37329</v>
       </c>
       <c r="C5">
         <v>2002</v>
@@ -2057,7 +2057,7 @@
         <v>1</v>
       </c>
       <c r="E5" t="s">
-        <v>16</v>
+        <v>49</v>
       </c>
       <c r="F5" t="s">
         <v>17</v>
@@ -2066,33 +2066,33 @@
         <v>16</v>
       </c>
       <c r="H5" t="s">
-        <v>20</v>
+        <v>76</v>
       </c>
       <c r="I5" t="s">
-        <v>22</v>
+        <v>77</v>
       </c>
       <c r="J5">
-        <v>70</v>
+        <v>37</v>
       </c>
       <c r="K5">
-        <v>-1.21</v>
+        <v>-5.31</v>
       </c>
       <c r="M5" t="s">
-        <v>23</v>
+        <v>75</v>
       </c>
       <c r="N5" t="s">
         <v>21</v>
       </c>
       <c r="O5">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2</v>
       </c>
       <c r="B6" s="1">
-        <v>37330</v>
+        <v>37329</v>
       </c>
       <c r="C6">
         <v>2002</v>
@@ -2101,7 +2101,7 @@
         <v>1</v>
       </c>
       <c r="E6" t="s">
-        <v>16</v>
+        <v>49</v>
       </c>
       <c r="F6" t="s">
         <v>21</v>
@@ -2110,33 +2110,33 @@
         <v>8</v>
       </c>
       <c r="H6" t="s">
-        <v>27</v>
+        <v>79</v>
       </c>
       <c r="I6" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="J6">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="K6">
-        <v>13.22</v>
+        <v>19.27</v>
       </c>
       <c r="M6" t="s">
-        <v>27</v>
+        <v>79</v>
       </c>
       <c r="N6" t="s">
         <v>21</v>
       </c>
       <c r="O6">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2</v>
       </c>
       <c r="B7" s="1">
-        <v>37330</v>
+        <v>37329</v>
       </c>
       <c r="C7">
         <v>2002</v>
@@ -2145,7 +2145,7 @@
         <v>1</v>
       </c>
       <c r="E7" t="s">
-        <v>16</v>
+        <v>49</v>
       </c>
       <c r="F7" t="s">
         <v>17</v>
@@ -2154,28 +2154,28 @@
         <v>9</v>
       </c>
       <c r="H7" t="s">
-        <v>25</v>
+        <v>78</v>
       </c>
       <c r="I7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="J7">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="K7">
-        <v>9.06</v>
+        <v>15.73</v>
       </c>
       <c r="M7" t="s">
-        <v>27</v>
+        <v>79</v>
       </c>
       <c r="N7" t="s">
         <v>21</v>
       </c>
       <c r="O7">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>3</v>
       </c>
@@ -2189,7 +2189,7 @@
         <v>1</v>
       </c>
       <c r="E8" t="s">
-        <v>16</v>
+        <v>49</v>
       </c>
       <c r="F8" t="s">
         <v>21</v>
@@ -2198,28 +2198,28 @@
         <v>5</v>
       </c>
       <c r="H8" t="s">
-        <v>29</v>
+        <v>80</v>
       </c>
       <c r="I8" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="J8">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="K8">
-        <v>21.47</v>
+        <v>24.8</v>
       </c>
       <c r="M8" t="s">
-        <v>31</v>
+        <v>80</v>
       </c>
       <c r="N8" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="O8">
-        <v>-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>3</v>
       </c>
@@ -2233,7 +2233,7 @@
         <v>1</v>
       </c>
       <c r="E9" t="s">
-        <v>16</v>
+        <v>49</v>
       </c>
       <c r="F9" t="s">
         <v>17</v>
@@ -2242,28 +2242,28 @@
         <v>12</v>
       </c>
       <c r="H9" t="s">
-        <v>31</v>
+        <v>81</v>
       </c>
       <c r="I9" t="s">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="J9">
-        <v>71</v>
+        <v>56</v>
       </c>
       <c r="K9">
-        <v>15.59</v>
+        <v>14.08</v>
       </c>
       <c r="M9" t="s">
-        <v>31</v>
+        <v>80</v>
       </c>
       <c r="N9" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="O9">
-        <v>-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>4</v>
       </c>
@@ -2277,7 +2277,7 @@
         <v>1</v>
       </c>
       <c r="E10" t="s">
-        <v>16</v>
+        <v>49</v>
       </c>
       <c r="F10" t="s">
         <v>21</v>
@@ -2286,28 +2286,31 @@
         <v>4</v>
       </c>
       <c r="H10" t="s">
-        <v>33</v>
+        <v>85</v>
       </c>
       <c r="I10" t="s">
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="J10">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="K10">
-        <v>22.21</v>
+        <v>20.67</v>
+      </c>
+      <c r="L10" t="s">
+        <v>84</v>
       </c>
       <c r="M10" t="s">
-        <v>33</v>
+        <v>82</v>
       </c>
       <c r="N10" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="O10">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>4</v>
       </c>
@@ -2321,7 +2324,7 @@
         <v>1</v>
       </c>
       <c r="E11" t="s">
-        <v>16</v>
+        <v>49</v>
       </c>
       <c r="F11" t="s">
         <v>17</v>
@@ -2330,28 +2333,31 @@
         <v>13</v>
       </c>
       <c r="H11" t="s">
-        <v>35</v>
+        <v>82</v>
       </c>
       <c r="I11" t="s">
-        <v>36</v>
+        <v>83</v>
       </c>
       <c r="J11">
-        <v>68</v>
+        <v>93</v>
       </c>
       <c r="K11">
-        <v>13.63</v>
+        <v>11.32</v>
+      </c>
+      <c r="L11" t="s">
+        <v>84</v>
       </c>
       <c r="M11" t="s">
-        <v>33</v>
+        <v>82</v>
       </c>
       <c r="N11" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="O11">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>5</v>
       </c>
@@ -2365,7 +2371,7 @@
         <v>1</v>
       </c>
       <c r="E12" t="s">
-        <v>16</v>
+        <v>49</v>
       </c>
       <c r="F12" t="s">
         <v>21</v>
@@ -2374,28 +2380,28 @@
         <v>6</v>
       </c>
       <c r="H12" t="s">
-        <v>39</v>
+        <v>86</v>
       </c>
       <c r="I12" t="s">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="J12">
-        <v>68</v>
+        <v>82</v>
       </c>
       <c r="K12">
-        <v>17.239999999999998</v>
+        <v>16.03</v>
       </c>
       <c r="M12" t="s">
-        <v>37</v>
+        <v>86</v>
       </c>
       <c r="N12" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="O12">
-        <v>-8</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>5</v>
       </c>
@@ -2409,7 +2415,7 @@
         <v>1</v>
       </c>
       <c r="E13" t="s">
-        <v>16</v>
+        <v>49</v>
       </c>
       <c r="F13" t="s">
         <v>17</v>
@@ -2418,28 +2424,28 @@
         <v>11</v>
       </c>
       <c r="H13" t="s">
-        <v>37</v>
+        <v>87</v>
       </c>
       <c r="I13" t="s">
-        <v>38</v>
+        <v>88</v>
       </c>
       <c r="J13">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K13">
-        <v>13.45</v>
+        <v>12.23</v>
       </c>
       <c r="M13" t="s">
-        <v>37</v>
+        <v>86</v>
       </c>
       <c r="N13" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="O13">
-        <v>-8</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>6</v>
       </c>
@@ -2453,7 +2459,7 @@
         <v>1</v>
       </c>
       <c r="E14" t="s">
-        <v>16</v>
+        <v>49</v>
       </c>
       <c r="F14" t="s">
         <v>21</v>
@@ -2462,19 +2468,19 @@
         <v>3</v>
       </c>
       <c r="H14" t="s">
-        <v>41</v>
+        <v>91</v>
       </c>
       <c r="I14" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="J14">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="K14">
-        <v>18.440000000000001</v>
+        <v>19.940000000000001</v>
       </c>
       <c r="M14" t="s">
-        <v>41</v>
+        <v>91</v>
       </c>
       <c r="N14" t="s">
         <v>21</v>
@@ -2483,7 +2489,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>6</v>
       </c>
@@ -2497,7 +2503,7 @@
         <v>1</v>
       </c>
       <c r="E15" t="s">
-        <v>16</v>
+        <v>49</v>
       </c>
       <c r="F15" t="s">
         <v>17</v>
@@ -2506,19 +2512,19 @@
         <v>14</v>
       </c>
       <c r="H15" t="s">
-        <v>42</v>
+        <v>89</v>
       </c>
       <c r="I15" t="s">
-        <v>43</v>
+        <v>90</v>
       </c>
       <c r="J15">
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="K15">
-        <v>1.35</v>
+        <v>0.93</v>
       </c>
       <c r="M15" t="s">
-        <v>41</v>
+        <v>91</v>
       </c>
       <c r="N15" t="s">
         <v>21</v>
@@ -2527,12 +2533,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>7</v>
       </c>
       <c r="B16" s="1">
-        <v>37330</v>
+        <v>37329</v>
       </c>
       <c r="C16">
         <v>2002</v>
@@ -2541,42 +2547,42 @@
         <v>1</v>
       </c>
       <c r="E16" t="s">
-        <v>16</v>
+        <v>49</v>
       </c>
       <c r="F16" t="s">
         <v>21</v>
       </c>
       <c r="G16">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H16" t="s">
-        <v>45</v>
+        <v>92</v>
       </c>
       <c r="I16" t="s">
-        <v>24</v>
+        <v>93</v>
       </c>
       <c r="J16">
         <v>69</v>
       </c>
       <c r="K16">
-        <v>19.149999999999999</v>
+        <v>20.39</v>
       </c>
       <c r="M16" t="s">
-        <v>45</v>
+        <v>92</v>
       </c>
       <c r="N16" t="s">
         <v>21</v>
       </c>
       <c r="O16">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>7</v>
       </c>
       <c r="B17" s="1">
-        <v>37330</v>
+        <v>37329</v>
       </c>
       <c r="C17">
         <v>2002</v>
@@ -2585,42 +2591,42 @@
         <v>1</v>
       </c>
       <c r="E17" t="s">
-        <v>16</v>
+        <v>49</v>
       </c>
       <c r="F17" t="s">
         <v>17</v>
       </c>
       <c r="G17">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="H17" t="s">
-        <v>44</v>
+        <v>94</v>
       </c>
       <c r="I17" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="J17">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="K17">
-        <v>16.86</v>
+        <v>15.8</v>
       </c>
       <c r="M17" t="s">
-        <v>45</v>
+        <v>92</v>
       </c>
       <c r="N17" t="s">
         <v>21</v>
       </c>
       <c r="O17">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>8</v>
       </c>
       <c r="B18" s="1">
-        <v>37330</v>
+        <v>37329</v>
       </c>
       <c r="C18">
         <v>2002</v>
@@ -2629,7 +2635,7 @@
         <v>1</v>
       </c>
       <c r="E18" t="s">
-        <v>16</v>
+        <v>49</v>
       </c>
       <c r="F18" t="s">
         <v>21</v>
@@ -2638,33 +2644,33 @@
         <v>2</v>
       </c>
       <c r="H18" t="s">
-        <v>46</v>
+        <v>95</v>
       </c>
       <c r="I18" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="J18">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="K18">
-        <v>19.36</v>
+        <v>18.73</v>
       </c>
       <c r="M18" t="s">
-        <v>46</v>
+        <v>95</v>
       </c>
       <c r="N18" t="s">
         <v>21</v>
       </c>
       <c r="O18">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>8</v>
       </c>
       <c r="B19" s="1">
-        <v>37330</v>
+        <v>37329</v>
       </c>
       <c r="C19">
         <v>2002</v>
@@ -2673,7 +2679,7 @@
         <v>1</v>
       </c>
       <c r="E19" t="s">
-        <v>16</v>
+        <v>49</v>
       </c>
       <c r="F19" t="s">
         <v>17</v>
@@ -2682,28 +2688,28 @@
         <v>15</v>
       </c>
       <c r="H19" t="s">
-        <v>47</v>
+        <v>96</v>
       </c>
       <c r="I19" t="s">
-        <v>48</v>
+        <v>97</v>
       </c>
       <c r="J19">
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="K19">
-        <v>3.99</v>
+        <v>-2.5</v>
       </c>
       <c r="M19" t="s">
-        <v>46</v>
+        <v>95</v>
       </c>
       <c r="N19" t="s">
         <v>21</v>
       </c>
       <c r="O19">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>9</v>
       </c>
@@ -2717,7 +2723,7 @@
         <v>1</v>
       </c>
       <c r="E20" t="s">
-        <v>49</v>
+        <v>98</v>
       </c>
       <c r="F20" t="s">
         <v>21</v>
@@ -2747,7 +2753,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="21" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>9</v>
       </c>
@@ -2761,7 +2767,7 @@
         <v>1</v>
       </c>
       <c r="E21" t="s">
-        <v>49</v>
+        <v>98</v>
       </c>
       <c r="F21" t="s">
         <v>17</v>
@@ -2791,7 +2797,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="22" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>10</v>
       </c>
@@ -2805,7 +2811,7 @@
         <v>1</v>
       </c>
       <c r="E22" t="s">
-        <v>49</v>
+        <v>98</v>
       </c>
       <c r="F22" t="s">
         <v>21</v>
@@ -2835,7 +2841,7 @@
         <v>-22</v>
       </c>
     </row>
-    <row r="23" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>10</v>
       </c>
@@ -2849,7 +2855,7 @@
         <v>1</v>
       </c>
       <c r="E23" t="s">
-        <v>49</v>
+        <v>98</v>
       </c>
       <c r="F23" t="s">
         <v>17</v>
@@ -2879,7 +2885,7 @@
         <v>-22</v>
       </c>
     </row>
-    <row r="24" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>11</v>
       </c>
@@ -2893,7 +2899,7 @@
         <v>1</v>
       </c>
       <c r="E24" t="s">
-        <v>49</v>
+        <v>98</v>
       </c>
       <c r="F24" t="s">
         <v>21</v>
@@ -2923,7 +2929,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="25" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>11</v>
       </c>
@@ -2937,7 +2943,7 @@
         <v>1</v>
       </c>
       <c r="E25" t="s">
-        <v>49</v>
+        <v>98</v>
       </c>
       <c r="F25" t="s">
         <v>17</v>
@@ -2967,7 +2973,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="26" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>12</v>
       </c>
@@ -2981,7 +2987,7 @@
         <v>1</v>
       </c>
       <c r="E26" t="s">
-        <v>49</v>
+        <v>98</v>
       </c>
       <c r="F26" t="s">
         <v>21</v>
@@ -3011,7 +3017,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>12</v>
       </c>
@@ -3025,7 +3031,7 @@
         <v>1</v>
       </c>
       <c r="E27" t="s">
-        <v>49</v>
+        <v>98</v>
       </c>
       <c r="F27" t="s">
         <v>17</v>
@@ -3055,7 +3061,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>13</v>
       </c>
@@ -3069,7 +3075,7 @@
         <v>1</v>
       </c>
       <c r="E28" t="s">
-        <v>49</v>
+        <v>98</v>
       </c>
       <c r="F28" t="s">
         <v>21</v>
@@ -3099,7 +3105,7 @@
         <v>-7</v>
       </c>
     </row>
-    <row r="29" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>13</v>
       </c>
@@ -3113,7 +3119,7 @@
         <v>1</v>
       </c>
       <c r="E29" t="s">
-        <v>49</v>
+        <v>98</v>
       </c>
       <c r="F29" t="s">
         <v>17</v>
@@ -3143,7 +3149,7 @@
         <v>-7</v>
       </c>
     </row>
-    <row r="30" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>14</v>
       </c>
@@ -3157,7 +3163,7 @@
         <v>1</v>
       </c>
       <c r="E30" t="s">
-        <v>49</v>
+        <v>98</v>
       </c>
       <c r="F30" t="s">
         <v>21</v>
@@ -3187,7 +3193,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>14</v>
       </c>
@@ -3201,7 +3207,7 @@
         <v>1</v>
       </c>
       <c r="E31" t="s">
-        <v>49</v>
+        <v>98</v>
       </c>
       <c r="F31" t="s">
         <v>17</v>
@@ -3231,7 +3237,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="32" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>15</v>
       </c>
@@ -3245,7 +3251,7 @@
         <v>1</v>
       </c>
       <c r="E32" t="s">
-        <v>49</v>
+        <v>98</v>
       </c>
       <c r="F32" t="s">
         <v>21</v>
@@ -3275,7 +3281,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="33" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>15</v>
       </c>
@@ -3289,7 +3295,7 @@
         <v>1</v>
       </c>
       <c r="E33" t="s">
-        <v>49</v>
+        <v>98</v>
       </c>
       <c r="F33" t="s">
         <v>17</v>
@@ -3319,7 +3325,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="34" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>16</v>
       </c>
@@ -3333,7 +3339,7 @@
         <v>1</v>
       </c>
       <c r="E34" t="s">
-        <v>49</v>
+        <v>98</v>
       </c>
       <c r="F34" t="s">
         <v>21</v>
@@ -3363,7 +3369,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="35" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>16</v>
       </c>
@@ -3377,7 +3383,7 @@
         <v>1</v>
       </c>
       <c r="E35" t="s">
-        <v>49</v>
+        <v>98</v>
       </c>
       <c r="F35" t="s">
         <v>17</v>
@@ -3407,12 +3413,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="36" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>17</v>
       </c>
       <c r="B36" s="1">
-        <v>37329</v>
+        <v>37330</v>
       </c>
       <c r="C36">
         <v>2002</v>
@@ -3421,7 +3427,7 @@
         <v>1</v>
       </c>
       <c r="E36" t="s">
-        <v>74</v>
+        <v>16</v>
       </c>
       <c r="F36" t="s">
         <v>21</v>
@@ -3430,33 +3436,33 @@
         <v>1</v>
       </c>
       <c r="H36" t="s">
-        <v>75</v>
+        <v>23</v>
       </c>
       <c r="I36" t="s">
         <v>24</v>
       </c>
       <c r="J36">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K36">
-        <v>34.19</v>
+        <v>29.25</v>
       </c>
       <c r="M36" t="s">
-        <v>75</v>
+        <v>23</v>
       </c>
       <c r="N36" t="s">
         <v>21</v>
       </c>
       <c r="O36">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="37" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>17</v>
       </c>
       <c r="B37" s="1">
-        <v>37329</v>
+        <v>37330</v>
       </c>
       <c r="C37">
         <v>2002</v>
@@ -3465,7 +3471,7 @@
         <v>1</v>
       </c>
       <c r="E37" t="s">
-        <v>74</v>
+        <v>16</v>
       </c>
       <c r="F37" t="s">
         <v>17</v>
@@ -3474,33 +3480,33 @@
         <v>16</v>
       </c>
       <c r="H37" t="s">
-        <v>76</v>
+        <v>20</v>
       </c>
       <c r="I37" t="s">
-        <v>77</v>
+        <v>22</v>
       </c>
       <c r="J37">
-        <v>37</v>
+        <v>70</v>
       </c>
       <c r="K37">
-        <v>-5.31</v>
+        <v>-1.21</v>
       </c>
       <c r="M37" t="s">
-        <v>75</v>
+        <v>23</v>
       </c>
       <c r="N37" t="s">
         <v>21</v>
       </c>
       <c r="O37">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="38" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>18</v>
       </c>
       <c r="B38" s="1">
-        <v>37329</v>
+        <v>37330</v>
       </c>
       <c r="C38">
         <v>2002</v>
@@ -3509,7 +3515,7 @@
         <v>1</v>
       </c>
       <c r="E38" t="s">
-        <v>74</v>
+        <v>16</v>
       </c>
       <c r="F38" t="s">
         <v>21</v>
@@ -3518,33 +3524,33 @@
         <v>8</v>
       </c>
       <c r="H38" t="s">
-        <v>79</v>
+        <v>27</v>
       </c>
       <c r="I38" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="J38">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="K38">
-        <v>19.27</v>
+        <v>13.22</v>
       </c>
       <c r="M38" t="s">
-        <v>79</v>
+        <v>27</v>
       </c>
       <c r="N38" t="s">
         <v>21</v>
       </c>
       <c r="O38">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="39" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>18</v>
       </c>
       <c r="B39" s="1">
-        <v>37329</v>
+        <v>37330</v>
       </c>
       <c r="C39">
         <v>2002</v>
@@ -3553,7 +3559,7 @@
         <v>1</v>
       </c>
       <c r="E39" t="s">
-        <v>74</v>
+        <v>16</v>
       </c>
       <c r="F39" t="s">
         <v>17</v>
@@ -3562,28 +3568,28 @@
         <v>9</v>
       </c>
       <c r="H39" t="s">
-        <v>78</v>
+        <v>25</v>
       </c>
       <c r="I39" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="J39">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="K39">
-        <v>15.73</v>
+        <v>9.06</v>
       </c>
       <c r="M39" t="s">
-        <v>79</v>
+        <v>27</v>
       </c>
       <c r="N39" t="s">
         <v>21</v>
       </c>
       <c r="O39">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="40" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>19</v>
       </c>
@@ -3597,7 +3603,7 @@
         <v>1</v>
       </c>
       <c r="E40" t="s">
-        <v>74</v>
+        <v>16</v>
       </c>
       <c r="F40" t="s">
         <v>21</v>
@@ -3606,28 +3612,28 @@
         <v>5</v>
       </c>
       <c r="H40" t="s">
-        <v>80</v>
+        <v>29</v>
       </c>
       <c r="I40" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="J40">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="K40">
-        <v>24.8</v>
+        <v>21.47</v>
       </c>
       <c r="M40" t="s">
-        <v>80</v>
+        <v>31</v>
       </c>
       <c r="N40" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="O40">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="41" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>19</v>
       </c>
@@ -3641,7 +3647,7 @@
         <v>1</v>
       </c>
       <c r="E41" t="s">
-        <v>74</v>
+        <v>16</v>
       </c>
       <c r="F41" t="s">
         <v>17</v>
@@ -3650,28 +3656,28 @@
         <v>12</v>
       </c>
       <c r="H41" t="s">
-        <v>81</v>
+        <v>31</v>
       </c>
       <c r="I41" t="s">
-        <v>64</v>
+        <v>32</v>
       </c>
       <c r="J41">
-        <v>56</v>
+        <v>71</v>
       </c>
       <c r="K41">
-        <v>14.08</v>
+        <v>15.59</v>
       </c>
       <c r="M41" t="s">
-        <v>80</v>
+        <v>31</v>
       </c>
       <c r="N41" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="O41">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="42" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>20</v>
       </c>
@@ -3685,7 +3691,7 @@
         <v>1</v>
       </c>
       <c r="E42" t="s">
-        <v>74</v>
+        <v>16</v>
       </c>
       <c r="F42" t="s">
         <v>21</v>
@@ -3694,31 +3700,28 @@
         <v>4</v>
       </c>
       <c r="H42" t="s">
-        <v>85</v>
+        <v>33</v>
       </c>
       <c r="I42" t="s">
-        <v>55</v>
+        <v>34</v>
       </c>
       <c r="J42">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="K42">
-        <v>20.67</v>
-      </c>
-      <c r="L42" t="s">
-        <v>84</v>
+        <v>22.21</v>
       </c>
       <c r="M42" t="s">
-        <v>82</v>
+        <v>33</v>
       </c>
       <c r="N42" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="O42">
-        <v>-4</v>
-      </c>
-    </row>
-    <row r="43" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>20</v>
       </c>
@@ -3732,7 +3735,7 @@
         <v>1</v>
       </c>
       <c r="E43" t="s">
-        <v>74</v>
+        <v>16</v>
       </c>
       <c r="F43" t="s">
         <v>17</v>
@@ -3741,31 +3744,28 @@
         <v>13</v>
       </c>
       <c r="H43" t="s">
-        <v>82</v>
+        <v>35</v>
       </c>
       <c r="I43" t="s">
-        <v>83</v>
+        <v>36</v>
       </c>
       <c r="J43">
-        <v>93</v>
+        <v>68</v>
       </c>
       <c r="K43">
-        <v>11.32</v>
-      </c>
-      <c r="L43" t="s">
-        <v>84</v>
+        <v>13.63</v>
       </c>
       <c r="M43" t="s">
-        <v>82</v>
+        <v>33</v>
       </c>
       <c r="N43" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="O43">
-        <v>-4</v>
-      </c>
-    </row>
-    <row r="44" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>21</v>
       </c>
@@ -3779,7 +3779,7 @@
         <v>1</v>
       </c>
       <c r="E44" t="s">
-        <v>74</v>
+        <v>16</v>
       </c>
       <c r="F44" t="s">
         <v>21</v>
@@ -3788,28 +3788,28 @@
         <v>6</v>
       </c>
       <c r="H44" t="s">
-        <v>86</v>
+        <v>39</v>
       </c>
       <c r="I44" t="s">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="J44">
-        <v>82</v>
+        <v>68</v>
       </c>
       <c r="K44">
-        <v>16.03</v>
+        <v>17.239999999999998</v>
       </c>
       <c r="M44" t="s">
-        <v>86</v>
+        <v>37</v>
       </c>
       <c r="N44" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="O44">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="45" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>21</v>
       </c>
@@ -3823,7 +3823,7 @@
         <v>1</v>
       </c>
       <c r="E45" t="s">
-        <v>74</v>
+        <v>16</v>
       </c>
       <c r="F45" t="s">
         <v>17</v>
@@ -3832,28 +3832,28 @@
         <v>11</v>
       </c>
       <c r="H45" t="s">
-        <v>87</v>
+        <v>37</v>
       </c>
       <c r="I45" t="s">
-        <v>88</v>
+        <v>38</v>
       </c>
       <c r="J45">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="K45">
-        <v>12.23</v>
+        <v>13.45</v>
       </c>
       <c r="M45" t="s">
-        <v>86</v>
+        <v>37</v>
       </c>
       <c r="N45" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="O45">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="46" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>22</v>
       </c>
@@ -3867,7 +3867,7 @@
         <v>1</v>
       </c>
       <c r="E46" t="s">
-        <v>74</v>
+        <v>16</v>
       </c>
       <c r="F46" t="s">
         <v>21</v>
@@ -3876,19 +3876,19 @@
         <v>3</v>
       </c>
       <c r="H46" t="s">
-        <v>91</v>
+        <v>41</v>
       </c>
       <c r="I46" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="J46">
-        <v>71</v>
+        <v>85</v>
       </c>
       <c r="K46">
-        <v>19.940000000000001</v>
+        <v>18.440000000000001</v>
       </c>
       <c r="M46" t="s">
-        <v>91</v>
+        <v>41</v>
       </c>
       <c r="N46" t="s">
         <v>21</v>
@@ -3897,7 +3897,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="47" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>22</v>
       </c>
@@ -3911,7 +3911,7 @@
         <v>1</v>
       </c>
       <c r="E47" t="s">
-        <v>74</v>
+        <v>16</v>
       </c>
       <c r="F47" t="s">
         <v>17</v>
@@ -3920,19 +3920,19 @@
         <v>14</v>
       </c>
       <c r="H47" t="s">
-        <v>89</v>
+        <v>42</v>
       </c>
       <c r="I47" t="s">
-        <v>90</v>
+        <v>43</v>
       </c>
       <c r="J47">
-        <v>54</v>
+        <v>68</v>
       </c>
       <c r="K47">
-        <v>0.93</v>
+        <v>1.35</v>
       </c>
       <c r="M47" t="s">
-        <v>91</v>
+        <v>41</v>
       </c>
       <c r="N47" t="s">
         <v>21</v>
@@ -3941,12 +3941,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="48" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>23</v>
       </c>
       <c r="B48" s="1">
-        <v>37329</v>
+        <v>37330</v>
       </c>
       <c r="C48">
         <v>2002</v>
@@ -3955,42 +3955,42 @@
         <v>1</v>
       </c>
       <c r="E48" t="s">
-        <v>74</v>
+        <v>16</v>
       </c>
       <c r="F48" t="s">
         <v>21</v>
       </c>
       <c r="G48">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="H48" t="s">
-        <v>92</v>
+        <v>45</v>
       </c>
       <c r="I48" t="s">
-        <v>93</v>
+        <v>24</v>
       </c>
       <c r="J48">
         <v>69</v>
       </c>
       <c r="K48">
-        <v>20.39</v>
+        <v>19.149999999999999</v>
       </c>
       <c r="M48" t="s">
-        <v>92</v>
+        <v>45</v>
       </c>
       <c r="N48" t="s">
         <v>21</v>
       </c>
       <c r="O48">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="49" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>23</v>
       </c>
       <c r="B49" s="1">
-        <v>37329</v>
+        <v>37330</v>
       </c>
       <c r="C49">
         <v>2002</v>
@@ -3999,42 +3999,42 @@
         <v>1</v>
       </c>
       <c r="E49" t="s">
-        <v>74</v>
+        <v>16</v>
       </c>
       <c r="F49" t="s">
         <v>17</v>
       </c>
       <c r="G49">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H49" t="s">
-        <v>94</v>
+        <v>44</v>
       </c>
       <c r="I49" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="J49">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="K49">
-        <v>15.8</v>
+        <v>16.86</v>
       </c>
       <c r="M49" t="s">
-        <v>92</v>
+        <v>45</v>
       </c>
       <c r="N49" t="s">
         <v>21</v>
       </c>
       <c r="O49">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="50" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>24</v>
       </c>
       <c r="B50" s="1">
-        <v>37329</v>
+        <v>37330</v>
       </c>
       <c r="C50">
         <v>2002</v>
@@ -4043,7 +4043,7 @@
         <v>1</v>
       </c>
       <c r="E50" t="s">
-        <v>74</v>
+        <v>16</v>
       </c>
       <c r="F50" t="s">
         <v>21</v>
@@ -4052,33 +4052,33 @@
         <v>2</v>
       </c>
       <c r="H50" t="s">
-        <v>95</v>
+        <v>46</v>
       </c>
       <c r="I50" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="J50">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="K50">
-        <v>18.73</v>
+        <v>19.36</v>
       </c>
       <c r="M50" t="s">
-        <v>95</v>
+        <v>46</v>
       </c>
       <c r="N50" t="s">
         <v>21</v>
       </c>
       <c r="O50">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="51" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>24</v>
       </c>
       <c r="B51" s="1">
-        <v>37329</v>
+        <v>37330</v>
       </c>
       <c r="C51">
         <v>2002</v>
@@ -4087,7 +4087,7 @@
         <v>1</v>
       </c>
       <c r="E51" t="s">
-        <v>74</v>
+        <v>16</v>
       </c>
       <c r="F51" t="s">
         <v>17</v>
@@ -4096,28 +4096,28 @@
         <v>15</v>
       </c>
       <c r="H51" t="s">
-        <v>96</v>
+        <v>47</v>
       </c>
       <c r="I51" t="s">
-        <v>97</v>
+        <v>48</v>
       </c>
       <c r="J51">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="K51">
-        <v>-2.5</v>
+        <v>3.99</v>
       </c>
       <c r="M51" t="s">
-        <v>95</v>
+        <v>46</v>
       </c>
       <c r="N51" t="s">
         <v>21</v>
       </c>
       <c r="O51">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="52" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>25</v>
       </c>
@@ -4131,7 +4131,7 @@
         <v>1</v>
       </c>
       <c r="E52" t="s">
-        <v>98</v>
+        <v>74</v>
       </c>
       <c r="F52" t="s">
         <v>21</v>
@@ -4161,7 +4161,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="53" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>25</v>
       </c>
@@ -4175,7 +4175,7 @@
         <v>1</v>
       </c>
       <c r="E53" t="s">
-        <v>98</v>
+        <v>74</v>
       </c>
       <c r="F53" t="s">
         <v>17</v>
@@ -4205,7 +4205,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="54" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>26</v>
       </c>
@@ -4219,7 +4219,7 @@
         <v>1</v>
       </c>
       <c r="E54" t="s">
-        <v>98</v>
+        <v>74</v>
       </c>
       <c r="F54" t="s">
         <v>21</v>
@@ -4249,7 +4249,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="55" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>26</v>
       </c>
@@ -4263,7 +4263,7 @@
         <v>1</v>
       </c>
       <c r="E55" t="s">
-        <v>98</v>
+        <v>74</v>
       </c>
       <c r="F55" t="s">
         <v>17</v>
@@ -4293,7 +4293,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="56" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>27</v>
       </c>
@@ -4307,37 +4307,40 @@
         <v>1</v>
       </c>
       <c r="E56" t="s">
-        <v>98</v>
+        <v>74</v>
       </c>
       <c r="F56" t="s">
         <v>21</v>
       </c>
       <c r="G56">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H56" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="I56" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="J56">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="K56">
-        <v>17.690000000000001</v>
+        <v>24.72</v>
+      </c>
+      <c r="L56" t="s">
+        <v>108</v>
       </c>
       <c r="M56" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="N56" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="O56">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="57" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>27</v>
       </c>
@@ -4351,37 +4354,40 @@
         <v>1</v>
       </c>
       <c r="E57" t="s">
-        <v>98</v>
+        <v>74</v>
       </c>
       <c r="F57" t="s">
         <v>17</v>
       </c>
       <c r="G57">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H57" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="I57" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="J57">
-        <v>57</v>
+        <v>83</v>
       </c>
       <c r="K57">
-        <v>9.9700000000000006</v>
+        <v>11.82</v>
+      </c>
+      <c r="L57" t="s">
+        <v>108</v>
       </c>
       <c r="M57" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="N57" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="O57">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="58" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>28</v>
       </c>
@@ -4395,40 +4401,37 @@
         <v>1</v>
       </c>
       <c r="E58" t="s">
-        <v>98</v>
+        <v>74</v>
       </c>
       <c r="F58" t="s">
         <v>21</v>
       </c>
       <c r="G58">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H58" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="I58" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="J58">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="K58">
-        <v>24.72</v>
-      </c>
-      <c r="L58" t="s">
-        <v>108</v>
+        <v>23.21</v>
       </c>
       <c r="M58" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="N58" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="O58">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="59" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>28</v>
       </c>
@@ -4442,45 +4445,42 @@
         <v>1</v>
       </c>
       <c r="E59" t="s">
-        <v>98</v>
+        <v>74</v>
       </c>
       <c r="F59" t="s">
         <v>17</v>
       </c>
       <c r="G59">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H59" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="I59" t="s">
-        <v>38</v>
+        <v>64</v>
       </c>
       <c r="J59">
-        <v>83</v>
+        <v>64</v>
       </c>
       <c r="K59">
-        <v>11.82</v>
-      </c>
-      <c r="L59" t="s">
-        <v>108</v>
+        <v>9.2899999999999991</v>
       </c>
       <c r="M59" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="N59" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="O59">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="60" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>29</v>
       </c>
       <c r="B60" s="1">
-        <v>37329</v>
+        <v>37330</v>
       </c>
       <c r="C60">
         <v>2002</v>
@@ -4489,42 +4489,42 @@
         <v>1</v>
       </c>
       <c r="E60" t="s">
-        <v>98</v>
+        <v>74</v>
       </c>
       <c r="F60" t="s">
         <v>21</v>
       </c>
       <c r="G60">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H60" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="I60" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="J60">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="K60">
-        <v>17.350000000000001</v>
+        <v>17.690000000000001</v>
       </c>
       <c r="M60" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="N60" t="s">
         <v>21</v>
       </c>
       <c r="O60">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="61" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>29</v>
       </c>
       <c r="B61" s="1">
-        <v>37329</v>
+        <v>37330</v>
       </c>
       <c r="C61">
         <v>2002</v>
@@ -4533,37 +4533,37 @@
         <v>1</v>
       </c>
       <c r="E61" t="s">
-        <v>98</v>
+        <v>74</v>
       </c>
       <c r="F61" t="s">
         <v>17</v>
       </c>
       <c r="G61">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H61" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="I61" t="s">
-        <v>62</v>
+        <v>26</v>
       </c>
       <c r="J61">
-        <v>74</v>
+        <v>57</v>
       </c>
       <c r="K61">
-        <v>11.72</v>
+        <v>9.9700000000000006</v>
       </c>
       <c r="M61" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="N61" t="s">
         <v>21</v>
       </c>
       <c r="O61">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="62" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>30</v>
       </c>
@@ -4577,37 +4577,37 @@
         <v>1</v>
       </c>
       <c r="E62" t="s">
-        <v>98</v>
+        <v>74</v>
       </c>
       <c r="F62" t="s">
         <v>21</v>
       </c>
       <c r="G62">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H62" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="I62" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="J62">
-        <v>93</v>
+        <v>70</v>
       </c>
       <c r="K62">
-        <v>23.21</v>
+        <v>18.25</v>
       </c>
       <c r="M62" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="N62" t="s">
         <v>21</v>
       </c>
       <c r="O62">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="63" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>30</v>
       </c>
@@ -4621,37 +4621,37 @@
         <v>1</v>
       </c>
       <c r="E63" t="s">
-        <v>98</v>
+        <v>74</v>
       </c>
       <c r="F63" t="s">
         <v>17</v>
       </c>
       <c r="G63">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H63" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="I63" t="s">
-        <v>64</v>
+        <v>118</v>
       </c>
       <c r="J63">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="K63">
-        <v>9.2899999999999991</v>
+        <v>5.39</v>
       </c>
       <c r="M63" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="N63" t="s">
         <v>21</v>
       </c>
       <c r="O63">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="64" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>31</v>
       </c>
@@ -4665,37 +4665,37 @@
         <v>1</v>
       </c>
       <c r="E64" t="s">
-        <v>98</v>
+        <v>74</v>
       </c>
       <c r="F64" t="s">
         <v>21</v>
       </c>
       <c r="G64">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="H64" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="I64" t="s">
-        <v>55</v>
+        <v>24</v>
       </c>
       <c r="J64">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="K64">
-        <v>22.97</v>
+        <v>17.350000000000001</v>
       </c>
       <c r="M64" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="N64" t="s">
         <v>21</v>
       </c>
       <c r="O64">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="65" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>31</v>
       </c>
@@ -4709,42 +4709,42 @@
         <v>1</v>
       </c>
       <c r="E65" t="s">
-        <v>98</v>
+        <v>74</v>
       </c>
       <c r="F65" t="s">
         <v>17</v>
       </c>
       <c r="G65">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="H65" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="I65" t="s">
-        <v>115</v>
+        <v>62</v>
       </c>
       <c r="J65">
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="K65">
-        <v>-4.51</v>
+        <v>11.72</v>
       </c>
       <c r="M65" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="N65" t="s">
         <v>21</v>
       </c>
       <c r="O65">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="66" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>32</v>
       </c>
       <c r="B66" s="1">
-        <v>37330</v>
+        <v>37329</v>
       </c>
       <c r="C66">
         <v>2002</v>
@@ -4753,42 +4753,42 @@
         <v>1</v>
       </c>
       <c r="E66" t="s">
-        <v>98</v>
+        <v>74</v>
       </c>
       <c r="F66" t="s">
         <v>21</v>
       </c>
       <c r="G66">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H66" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="I66" t="s">
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="J66">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="K66">
-        <v>18.25</v>
+        <v>22.97</v>
       </c>
       <c r="M66" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="N66" t="s">
         <v>21</v>
       </c>
       <c r="O66">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="67" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>32</v>
       </c>
       <c r="B67" s="1">
-        <v>37330</v>
+        <v>37329</v>
       </c>
       <c r="C67">
         <v>2002</v>
@@ -4797,42 +4797,42 @@
         <v>1</v>
       </c>
       <c r="E67" t="s">
-        <v>98</v>
+        <v>74</v>
       </c>
       <c r="F67" t="s">
         <v>17</v>
       </c>
       <c r="G67">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H67" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="I67" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="J67">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="K67">
-        <v>5.39</v>
+        <v>-4.51</v>
       </c>
       <c r="M67" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="N67" t="s">
         <v>21</v>
       </c>
       <c r="O67">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="68" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>33</v>
       </c>
       <c r="B68" s="1">
-        <v>37332</v>
+        <v>37331</v>
       </c>
       <c r="C68">
         <v>2002</v>
@@ -4841,7 +4841,7 @@
         <v>2</v>
       </c>
       <c r="E68" t="s">
-        <v>16</v>
+        <v>49</v>
       </c>
       <c r="F68" t="s">
         <v>21</v>
@@ -4850,33 +4850,33 @@
         <v>1</v>
       </c>
       <c r="H68" t="s">
-        <v>23</v>
+        <v>75</v>
       </c>
       <c r="I68" t="s">
         <v>24</v>
       </c>
       <c r="J68">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="K68">
-        <v>29.25</v>
+        <v>34.19</v>
       </c>
       <c r="M68" t="s">
-        <v>23</v>
+        <v>75</v>
       </c>
       <c r="N68" t="s">
         <v>21</v>
       </c>
       <c r="O68">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="69" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>33</v>
       </c>
       <c r="B69" s="1">
-        <v>37332</v>
+        <v>37331</v>
       </c>
       <c r="C69">
         <v>2002</v>
@@ -4885,7 +4885,7 @@
         <v>2</v>
       </c>
       <c r="E69" t="s">
-        <v>16</v>
+        <v>49</v>
       </c>
       <c r="F69" t="s">
         <v>17</v>
@@ -4894,28 +4894,28 @@
         <v>8</v>
       </c>
       <c r="H69" t="s">
-        <v>27</v>
+        <v>79</v>
       </c>
       <c r="I69" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="J69">
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="K69">
-        <v>13.22</v>
+        <v>19.27</v>
       </c>
       <c r="M69" t="s">
-        <v>23</v>
+        <v>75</v>
       </c>
       <c r="N69" t="s">
         <v>21</v>
       </c>
       <c r="O69">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="70" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>34</v>
       </c>
@@ -4929,37 +4929,37 @@
         <v>2</v>
       </c>
       <c r="E70" t="s">
-        <v>16</v>
+        <v>49</v>
       </c>
       <c r="F70" t="s">
         <v>21</v>
       </c>
       <c r="G70">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H70" t="s">
-        <v>33</v>
+        <v>80</v>
       </c>
       <c r="I70" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="J70">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="K70">
-        <v>22.21</v>
+        <v>24.8</v>
       </c>
       <c r="M70" t="s">
-        <v>33</v>
+        <v>80</v>
       </c>
       <c r="N70" t="s">
         <v>21</v>
       </c>
       <c r="O70">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="71" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>34</v>
       </c>
@@ -4973,37 +4973,37 @@
         <v>2</v>
       </c>
       <c r="E71" t="s">
-        <v>16</v>
+        <v>49</v>
       </c>
       <c r="F71" t="s">
         <v>17</v>
       </c>
       <c r="G71">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H71" t="s">
-        <v>31</v>
+        <v>82</v>
       </c>
       <c r="I71" t="s">
-        <v>32</v>
+        <v>83</v>
       </c>
       <c r="J71">
-        <v>82</v>
+        <v>67</v>
       </c>
       <c r="K71">
-        <v>15.59</v>
+        <v>11.32</v>
       </c>
       <c r="M71" t="s">
-        <v>33</v>
+        <v>80</v>
       </c>
       <c r="N71" t="s">
         <v>21</v>
       </c>
       <c r="O71">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="72" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>35</v>
       </c>
@@ -5017,7 +5017,7 @@
         <v>2</v>
       </c>
       <c r="E72" t="s">
-        <v>16</v>
+        <v>49</v>
       </c>
       <c r="F72" t="s">
         <v>21</v>
@@ -5026,28 +5026,28 @@
         <v>3</v>
       </c>
       <c r="H72" t="s">
-        <v>41</v>
+        <v>91</v>
       </c>
       <c r="I72" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="J72">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="K72">
-        <v>18.440000000000001</v>
+        <v>19.940000000000001</v>
       </c>
       <c r="M72" t="s">
-        <v>37</v>
+        <v>91</v>
       </c>
       <c r="N72" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="O72">
-        <v>-2</v>
-      </c>
-    </row>
-    <row r="73" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>35</v>
       </c>
@@ -5061,42 +5061,42 @@
         <v>2</v>
       </c>
       <c r="E73" t="s">
-        <v>16</v>
+        <v>49</v>
       </c>
       <c r="F73" t="s">
         <v>17</v>
       </c>
       <c r="G73">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="H73" t="s">
-        <v>37</v>
+        <v>86</v>
       </c>
       <c r="I73" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="J73">
-        <v>77</v>
+        <v>50</v>
       </c>
       <c r="K73">
-        <v>13.45</v>
+        <v>16.03</v>
       </c>
       <c r="M73" t="s">
-        <v>37</v>
+        <v>91</v>
       </c>
       <c r="N73" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="O73">
-        <v>-2</v>
-      </c>
-    </row>
-    <row r="74" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>36</v>
       </c>
       <c r="B74" s="1">
-        <v>37332</v>
+        <v>37331</v>
       </c>
       <c r="C74">
         <v>2002</v>
@@ -5105,42 +5105,42 @@
         <v>2</v>
       </c>
       <c r="E74" t="s">
-        <v>16</v>
+        <v>49</v>
       </c>
       <c r="F74" t="s">
         <v>21</v>
       </c>
       <c r="G74">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="H74" t="s">
-        <v>46</v>
+        <v>92</v>
       </c>
       <c r="I74" t="s">
-        <v>26</v>
+        <v>93</v>
       </c>
       <c r="J74">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="K74">
-        <v>19.36</v>
+        <v>20.39</v>
       </c>
       <c r="M74" t="s">
-        <v>46</v>
+        <v>92</v>
       </c>
       <c r="N74" t="s">
         <v>21</v>
       </c>
       <c r="O74">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="75" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>36</v>
       </c>
       <c r="B75" s="1">
-        <v>37332</v>
+        <v>37331</v>
       </c>
       <c r="C75">
         <v>2002</v>
@@ -5149,37 +5149,37 @@
         <v>2</v>
       </c>
       <c r="E75" t="s">
-        <v>16</v>
+        <v>49</v>
       </c>
       <c r="F75" t="s">
         <v>17</v>
       </c>
       <c r="G75">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="H75" t="s">
-        <v>45</v>
+        <v>95</v>
       </c>
       <c r="I75" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="J75">
-        <v>74</v>
+        <v>58</v>
       </c>
       <c r="K75">
-        <v>19.149999999999999</v>
+        <v>18.73</v>
       </c>
       <c r="M75" t="s">
-        <v>46</v>
+        <v>92</v>
       </c>
       <c r="N75" t="s">
         <v>21</v>
       </c>
       <c r="O75">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="76" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="76" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>37</v>
       </c>
@@ -5193,7 +5193,7 @@
         <v>2</v>
       </c>
       <c r="E76" t="s">
-        <v>49</v>
+        <v>98</v>
       </c>
       <c r="F76" t="s">
         <v>21</v>
@@ -5226,7 +5226,7 @@
         <v>-4</v>
       </c>
     </row>
-    <row r="77" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>37</v>
       </c>
@@ -5240,7 +5240,7 @@
         <v>2</v>
       </c>
       <c r="E77" t="s">
-        <v>49</v>
+        <v>98</v>
       </c>
       <c r="F77" t="s">
         <v>17</v>
@@ -5273,7 +5273,7 @@
         <v>-4</v>
       </c>
     </row>
-    <row r="78" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>38</v>
       </c>
@@ -5287,7 +5287,7 @@
         <v>2</v>
       </c>
       <c r="E78" t="s">
-        <v>49</v>
+        <v>98</v>
       </c>
       <c r="F78" t="s">
         <v>21</v>
@@ -5317,7 +5317,7 @@
         <v>-16</v>
       </c>
     </row>
-    <row r="79" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>38</v>
       </c>
@@ -5331,7 +5331,7 @@
         <v>2</v>
       </c>
       <c r="E79" t="s">
-        <v>49</v>
+        <v>98</v>
       </c>
       <c r="F79" t="s">
         <v>17</v>
@@ -5361,7 +5361,7 @@
         <v>-16</v>
       </c>
     </row>
-    <row r="80" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>39</v>
       </c>
@@ -5375,7 +5375,7 @@
         <v>2</v>
       </c>
       <c r="E80" t="s">
-        <v>49</v>
+        <v>98</v>
       </c>
       <c r="F80" t="s">
         <v>21</v>
@@ -5405,7 +5405,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="81" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>39</v>
       </c>
@@ -5419,7 +5419,7 @@
         <v>2</v>
       </c>
       <c r="E81" t="s">
-        <v>49</v>
+        <v>98</v>
       </c>
       <c r="F81" t="s">
         <v>17</v>
@@ -5449,7 +5449,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="82" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>40</v>
       </c>
@@ -5463,7 +5463,7 @@
         <v>2</v>
       </c>
       <c r="E82" t="s">
-        <v>49</v>
+        <v>98</v>
       </c>
       <c r="F82" t="s">
         <v>21</v>
@@ -5493,7 +5493,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="83" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>40</v>
       </c>
@@ -5507,7 +5507,7 @@
         <v>2</v>
       </c>
       <c r="E83" t="s">
-        <v>49</v>
+        <v>98</v>
       </c>
       <c r="F83" t="s">
         <v>17</v>
@@ -5537,12 +5537,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="84" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>41</v>
       </c>
       <c r="B84" s="1">
-        <v>37331</v>
+        <v>37332</v>
       </c>
       <c r="C84">
         <v>2002</v>
@@ -5551,7 +5551,7 @@
         <v>2</v>
       </c>
       <c r="E84" t="s">
-        <v>74</v>
+        <v>16</v>
       </c>
       <c r="F84" t="s">
         <v>21</v>
@@ -5560,33 +5560,33 @@
         <v>1</v>
       </c>
       <c r="H84" t="s">
-        <v>75</v>
+        <v>23</v>
       </c>
       <c r="I84" t="s">
         <v>24</v>
       </c>
       <c r="J84">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="K84">
-        <v>34.19</v>
+        <v>29.25</v>
       </c>
       <c r="M84" t="s">
-        <v>75</v>
+        <v>23</v>
       </c>
       <c r="N84" t="s">
         <v>21</v>
       </c>
       <c r="O84">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="85" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="85" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>41</v>
       </c>
       <c r="B85" s="1">
-        <v>37331</v>
+        <v>37332</v>
       </c>
       <c r="C85">
         <v>2002</v>
@@ -5595,7 +5595,7 @@
         <v>2</v>
       </c>
       <c r="E85" t="s">
-        <v>74</v>
+        <v>16</v>
       </c>
       <c r="F85" t="s">
         <v>17</v>
@@ -5604,28 +5604,28 @@
         <v>8</v>
       </c>
       <c r="H85" t="s">
-        <v>79</v>
+        <v>27</v>
       </c>
       <c r="I85" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="J85">
-        <v>77</v>
+        <v>57</v>
       </c>
       <c r="K85">
-        <v>19.27</v>
+        <v>13.22</v>
       </c>
       <c r="M85" t="s">
-        <v>75</v>
+        <v>23</v>
       </c>
       <c r="N85" t="s">
         <v>21</v>
       </c>
       <c r="O85">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="86" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="86" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>42</v>
       </c>
@@ -5639,37 +5639,37 @@
         <v>2</v>
       </c>
       <c r="E86" t="s">
-        <v>74</v>
+        <v>16</v>
       </c>
       <c r="F86" t="s">
         <v>21</v>
       </c>
       <c r="G86">
+        <v>4</v>
+      </c>
+      <c r="H86" t="s">
+        <v>33</v>
+      </c>
+      <c r="I86" t="s">
+        <v>34</v>
+      </c>
+      <c r="J86">
+        <v>87</v>
+      </c>
+      <c r="K86">
+        <v>22.21</v>
+      </c>
+      <c r="M86" t="s">
+        <v>33</v>
+      </c>
+      <c r="N86" t="s">
+        <v>21</v>
+      </c>
+      <c r="O86">
         <v>5</v>
       </c>
-      <c r="H86" t="s">
-        <v>80</v>
-      </c>
-      <c r="I86" t="s">
-        <v>28</v>
-      </c>
-      <c r="J86">
-        <v>76</v>
-      </c>
-      <c r="K86">
-        <v>24.8</v>
-      </c>
-      <c r="M86" t="s">
-        <v>80</v>
-      </c>
-      <c r="N86" t="s">
-        <v>21</v>
-      </c>
-      <c r="O86">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="87" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="87" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>42</v>
       </c>
@@ -5683,37 +5683,37 @@
         <v>2</v>
       </c>
       <c r="E87" t="s">
-        <v>74</v>
+        <v>16</v>
       </c>
       <c r="F87" t="s">
         <v>17</v>
       </c>
       <c r="G87">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H87" t="s">
+        <v>31</v>
+      </c>
+      <c r="I87" t="s">
+        <v>32</v>
+      </c>
+      <c r="J87">
         <v>82</v>
       </c>
-      <c r="I87" t="s">
-        <v>83</v>
-      </c>
-      <c r="J87">
-        <v>67</v>
-      </c>
       <c r="K87">
-        <v>11.32</v>
+        <v>15.59</v>
       </c>
       <c r="M87" t="s">
-        <v>80</v>
+        <v>33</v>
       </c>
       <c r="N87" t="s">
         <v>21</v>
       </c>
       <c r="O87">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="88" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="88" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>43</v>
       </c>
@@ -5727,7 +5727,7 @@
         <v>2</v>
       </c>
       <c r="E88" t="s">
-        <v>74</v>
+        <v>16</v>
       </c>
       <c r="F88" t="s">
         <v>21</v>
@@ -5736,28 +5736,28 @@
         <v>3</v>
       </c>
       <c r="H88" t="s">
-        <v>91</v>
+        <v>41</v>
       </c>
       <c r="I88" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="J88">
-        <v>63</v>
+        <v>75</v>
       </c>
       <c r="K88">
-        <v>19.940000000000001</v>
+        <v>18.440000000000001</v>
       </c>
       <c r="M88" t="s">
-        <v>91</v>
+        <v>37</v>
       </c>
       <c r="N88" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="O88">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="89" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="89" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>43</v>
       </c>
@@ -5771,42 +5771,42 @@
         <v>2</v>
       </c>
       <c r="E89" t="s">
-        <v>74</v>
+        <v>16</v>
       </c>
       <c r="F89" t="s">
         <v>17</v>
       </c>
       <c r="G89">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="H89" t="s">
-        <v>86</v>
+        <v>37</v>
       </c>
       <c r="I89" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="J89">
-        <v>50</v>
+        <v>77</v>
       </c>
       <c r="K89">
-        <v>16.03</v>
+        <v>13.45</v>
       </c>
       <c r="M89" t="s">
-        <v>91</v>
+        <v>37</v>
       </c>
       <c r="N89" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="O89">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="90" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="90" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>44</v>
       </c>
       <c r="B90" s="1">
-        <v>37331</v>
+        <v>37332</v>
       </c>
       <c r="C90">
         <v>2002</v>
@@ -5815,42 +5815,42 @@
         <v>2</v>
       </c>
       <c r="E90" t="s">
-        <v>74</v>
+        <v>16</v>
       </c>
       <c r="F90" t="s">
         <v>21</v>
       </c>
       <c r="G90">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="H90" t="s">
-        <v>92</v>
+        <v>46</v>
       </c>
       <c r="I90" t="s">
-        <v>93</v>
+        <v>26</v>
       </c>
       <c r="J90">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="K90">
-        <v>20.39</v>
+        <v>19.36</v>
       </c>
       <c r="M90" t="s">
-        <v>92</v>
+        <v>46</v>
       </c>
       <c r="N90" t="s">
         <v>21</v>
       </c>
       <c r="O90">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="91" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="91" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>44</v>
       </c>
       <c r="B91" s="1">
-        <v>37331</v>
+        <v>37332</v>
       </c>
       <c r="C91">
         <v>2002</v>
@@ -5859,37 +5859,37 @@
         <v>2</v>
       </c>
       <c r="E91" t="s">
+        <v>16</v>
+      </c>
+      <c r="F91" t="s">
+        <v>17</v>
+      </c>
+      <c r="G91">
+        <v>7</v>
+      </c>
+      <c r="H91" t="s">
+        <v>45</v>
+      </c>
+      <c r="I91" t="s">
+        <v>24</v>
+      </c>
+      <c r="J91">
         <v>74</v>
       </c>
-      <c r="F91" t="s">
-        <v>17</v>
-      </c>
-      <c r="G91">
-        <v>2</v>
-      </c>
-      <c r="H91" t="s">
-        <v>95</v>
-      </c>
-      <c r="I91" t="s">
-        <v>34</v>
-      </c>
-      <c r="J91">
-        <v>58</v>
-      </c>
       <c r="K91">
-        <v>18.73</v>
+        <v>19.149999999999999</v>
       </c>
       <c r="M91" t="s">
-        <v>92</v>
+        <v>46</v>
       </c>
       <c r="N91" t="s">
         <v>21</v>
       </c>
       <c r="O91">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="92" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>45</v>
       </c>
@@ -5903,7 +5903,7 @@
         <v>2</v>
       </c>
       <c r="E92" t="s">
-        <v>98</v>
+        <v>74</v>
       </c>
       <c r="F92" t="s">
         <v>21</v>
@@ -5933,7 +5933,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="93" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>45</v>
       </c>
@@ -5947,7 +5947,7 @@
         <v>2</v>
       </c>
       <c r="E93" t="s">
-        <v>98</v>
+        <v>74</v>
       </c>
       <c r="F93" t="s">
         <v>17</v>
@@ -5977,7 +5977,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="94" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>46</v>
       </c>
@@ -5991,7 +5991,7 @@
         <v>2</v>
       </c>
       <c r="E94" t="s">
-        <v>98</v>
+        <v>74</v>
       </c>
       <c r="F94" t="s">
         <v>21</v>
@@ -6021,7 +6021,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="95" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>46</v>
       </c>
@@ -6035,7 +6035,7 @@
         <v>2</v>
       </c>
       <c r="E95" t="s">
-        <v>98</v>
+        <v>74</v>
       </c>
       <c r="F95" t="s">
         <v>17</v>
@@ -6065,7 +6065,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="96" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>47</v>
       </c>
@@ -6079,7 +6079,7 @@
         <v>2</v>
       </c>
       <c r="E96" t="s">
-        <v>98</v>
+        <v>74</v>
       </c>
       <c r="F96" t="s">
         <v>21</v>
@@ -6109,7 +6109,7 @@
         <v>-4</v>
       </c>
     </row>
-    <row r="97" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>47</v>
       </c>
@@ -6123,7 +6123,7 @@
         <v>2</v>
       </c>
       <c r="E97" t="s">
-        <v>98</v>
+        <v>74</v>
       </c>
       <c r="F97" t="s">
         <v>17</v>
@@ -6153,7 +6153,7 @@
         <v>-4</v>
       </c>
     </row>
-    <row r="98" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>48</v>
       </c>
@@ -6167,7 +6167,7 @@
         <v>2</v>
       </c>
       <c r="E98" t="s">
-        <v>98</v>
+        <v>74</v>
       </c>
       <c r="F98" t="s">
         <v>21</v>
@@ -6197,7 +6197,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="99" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>48</v>
       </c>
@@ -6211,7 +6211,7 @@
         <v>2</v>
       </c>
       <c r="E99" t="s">
-        <v>98</v>
+        <v>74</v>
       </c>
       <c r="F99" t="s">
         <v>17</v>
@@ -6241,12 +6241,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="100" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>49</v>
       </c>
       <c r="B100" s="1">
-        <v>37337</v>
+        <v>37336</v>
       </c>
       <c r="C100">
         <v>2002</v>
@@ -6255,7 +6255,7 @@
         <v>3</v>
       </c>
       <c r="E100" t="s">
-        <v>16</v>
+        <v>49</v>
       </c>
       <c r="F100" t="s">
         <v>21</v>
@@ -6264,33 +6264,33 @@
         <v>1</v>
       </c>
       <c r="H100" t="s">
-        <v>23</v>
+        <v>75</v>
       </c>
       <c r="I100" t="s">
         <v>24</v>
       </c>
       <c r="J100">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="K100">
-        <v>29.25</v>
+        <v>34.19</v>
       </c>
       <c r="M100" t="s">
-        <v>23</v>
+        <v>80</v>
       </c>
       <c r="N100" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="O100">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="101" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>49</v>
       </c>
       <c r="B101" s="1">
-        <v>37337</v>
+        <v>37336</v>
       </c>
       <c r="C101">
         <v>2002</v>
@@ -6299,42 +6299,42 @@
         <v>3</v>
       </c>
       <c r="E101" t="s">
-        <v>16</v>
+        <v>49</v>
       </c>
       <c r="F101" t="s">
         <v>17</v>
       </c>
       <c r="G101">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H101" t="s">
-        <v>33</v>
+        <v>80</v>
       </c>
       <c r="I101" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="J101">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="K101">
-        <v>22.21</v>
+        <v>24.8</v>
       </c>
       <c r="M101" t="s">
-        <v>23</v>
+        <v>80</v>
       </c>
       <c r="N101" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="O101">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="102" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>50</v>
       </c>
       <c r="B102" s="1">
-        <v>37337</v>
+        <v>37336</v>
       </c>
       <c r="C102">
         <v>2002</v>
@@ -6343,42 +6343,42 @@
         <v>3</v>
       </c>
       <c r="E102" t="s">
-        <v>16</v>
+        <v>49</v>
       </c>
       <c r="F102" t="s">
         <v>21</v>
       </c>
       <c r="G102">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="H102" t="s">
-        <v>46</v>
+        <v>92</v>
       </c>
       <c r="I102" t="s">
-        <v>26</v>
+        <v>93</v>
       </c>
       <c r="J102">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="K102">
-        <v>19.36</v>
+        <v>20.39</v>
       </c>
       <c r="M102" t="s">
-        <v>46</v>
+        <v>92</v>
       </c>
       <c r="N102" t="s">
         <v>21</v>
       </c>
       <c r="O102">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="103" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="103" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>50</v>
       </c>
       <c r="B103" s="1">
-        <v>37337</v>
+        <v>37336</v>
       </c>
       <c r="C103">
         <v>2002</v>
@@ -6387,37 +6387,37 @@
         <v>3</v>
       </c>
       <c r="E103" t="s">
-        <v>16</v>
+        <v>49</v>
       </c>
       <c r="F103" t="s">
         <v>17</v>
       </c>
       <c r="G103">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="H103" t="s">
-        <v>37</v>
+        <v>91</v>
       </c>
       <c r="I103" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="J103">
-        <v>59</v>
+        <v>73</v>
       </c>
       <c r="K103">
-        <v>13.45</v>
+        <v>19.940000000000001</v>
       </c>
       <c r="M103" t="s">
-        <v>46</v>
+        <v>92</v>
       </c>
       <c r="N103" t="s">
         <v>21</v>
       </c>
       <c r="O103">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="104" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="104" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>51</v>
       </c>
@@ -6431,37 +6431,37 @@
         <v>3</v>
       </c>
       <c r="E104" t="s">
-        <v>49</v>
+        <v>98</v>
       </c>
       <c r="F104" t="s">
         <v>21</v>
       </c>
       <c r="G104">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="H104" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="I104" t="s">
         <v>40</v>
       </c>
       <c r="J104">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="K104">
-        <v>26.04</v>
+        <v>17.489999999999998</v>
       </c>
       <c r="M104" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="N104" t="s">
         <v>21</v>
       </c>
       <c r="O104">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="105" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="105" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>51</v>
       </c>
@@ -6475,37 +6475,37 @@
         <v>3</v>
       </c>
       <c r="E105" t="s">
-        <v>49</v>
+        <v>98</v>
       </c>
       <c r="F105" t="s">
         <v>17</v>
       </c>
       <c r="G105">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="H105" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="I105" t="s">
         <v>55</v>
       </c>
       <c r="J105">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="K105">
-        <v>20.54</v>
+        <v>16.34</v>
       </c>
       <c r="M105" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="N105" t="s">
         <v>21</v>
       </c>
       <c r="O105">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="106" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="106" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>52</v>
       </c>
@@ -6519,37 +6519,37 @@
         <v>3</v>
       </c>
       <c r="E106" t="s">
-        <v>49</v>
+        <v>98</v>
       </c>
       <c r="F106" t="s">
         <v>21</v>
       </c>
       <c r="G106">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="H106" t="s">
-        <v>57</v>
+        <v>73</v>
       </c>
       <c r="I106" t="s">
         <v>40</v>
       </c>
       <c r="J106">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="K106">
-        <v>17.489999999999998</v>
+        <v>26.04</v>
       </c>
       <c r="M106" t="s">
-        <v>57</v>
+        <v>73</v>
       </c>
       <c r="N106" t="s">
         <v>21</v>
       </c>
       <c r="O106">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="107" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="107" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>52</v>
       </c>
@@ -6563,42 +6563,42 @@
         <v>3</v>
       </c>
       <c r="E107" t="s">
-        <v>49</v>
+        <v>98</v>
       </c>
       <c r="F107" t="s">
         <v>17</v>
       </c>
       <c r="G107">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="H107" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="I107" t="s">
         <v>55</v>
       </c>
       <c r="J107">
+        <v>67</v>
+      </c>
+      <c r="K107">
+        <v>20.54</v>
+      </c>
+      <c r="M107" t="s">
         <v>73</v>
       </c>
-      <c r="K107">
-        <v>16.34</v>
-      </c>
-      <c r="M107" t="s">
-        <v>57</v>
-      </c>
       <c r="N107" t="s">
         <v>21</v>
       </c>
       <c r="O107">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="108" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="108" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>53</v>
       </c>
       <c r="B108" s="1">
-        <v>37336</v>
+        <v>37337</v>
       </c>
       <c r="C108">
         <v>2002</v>
@@ -6607,7 +6607,7 @@
         <v>3</v>
       </c>
       <c r="E108" t="s">
-        <v>74</v>
+        <v>16</v>
       </c>
       <c r="F108" t="s">
         <v>21</v>
@@ -6616,33 +6616,33 @@
         <v>1</v>
       </c>
       <c r="H108" t="s">
-        <v>75</v>
+        <v>23</v>
       </c>
       <c r="I108" t="s">
         <v>24</v>
       </c>
       <c r="J108">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="K108">
-        <v>34.19</v>
+        <v>29.25</v>
       </c>
       <c r="M108" t="s">
-        <v>80</v>
+        <v>23</v>
       </c>
       <c r="N108" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="O108">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="109" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="109" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>53</v>
       </c>
       <c r="B109" s="1">
-        <v>37336</v>
+        <v>37337</v>
       </c>
       <c r="C109">
         <v>2002</v>
@@ -6651,42 +6651,42 @@
         <v>3</v>
       </c>
       <c r="E109" t="s">
-        <v>74</v>
+        <v>16</v>
       </c>
       <c r="F109" t="s">
         <v>17</v>
       </c>
       <c r="G109">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H109" t="s">
-        <v>80</v>
+        <v>33</v>
       </c>
       <c r="I109" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="J109">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="K109">
-        <v>24.8</v>
+        <v>22.21</v>
       </c>
       <c r="M109" t="s">
-        <v>80</v>
+        <v>23</v>
       </c>
       <c r="N109" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="O109">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="110" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="110" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>54</v>
       </c>
       <c r="B110" s="1">
-        <v>37336</v>
+        <v>37337</v>
       </c>
       <c r="C110">
         <v>2002</v>
@@ -6695,42 +6695,42 @@
         <v>3</v>
       </c>
       <c r="E110" t="s">
-        <v>74</v>
+        <v>16</v>
       </c>
       <c r="F110" t="s">
         <v>21</v>
       </c>
       <c r="G110">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="H110" t="s">
-        <v>92</v>
+        <v>46</v>
       </c>
       <c r="I110" t="s">
-        <v>93</v>
+        <v>26</v>
       </c>
       <c r="J110">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="K110">
-        <v>20.39</v>
+        <v>19.36</v>
       </c>
       <c r="M110" t="s">
-        <v>92</v>
+        <v>46</v>
       </c>
       <c r="N110" t="s">
         <v>21</v>
       </c>
       <c r="O110">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="111" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="111" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>54</v>
       </c>
       <c r="B111" s="1">
-        <v>37336</v>
+        <v>37337</v>
       </c>
       <c r="C111">
         <v>2002</v>
@@ -6739,37 +6739,37 @@
         <v>3</v>
       </c>
       <c r="E111" t="s">
-        <v>74</v>
+        <v>16</v>
       </c>
       <c r="F111" t="s">
         <v>17</v>
       </c>
       <c r="G111">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="H111" t="s">
-        <v>91</v>
+        <v>37</v>
       </c>
       <c r="I111" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="J111">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="K111">
-        <v>19.940000000000001</v>
+        <v>13.45</v>
       </c>
       <c r="M111" t="s">
-        <v>92</v>
+        <v>46</v>
       </c>
       <c r="N111" t="s">
         <v>21</v>
       </c>
       <c r="O111">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="112" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="112" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>55</v>
       </c>
@@ -6783,7 +6783,7 @@
         <v>3</v>
       </c>
       <c r="E112" t="s">
-        <v>98</v>
+        <v>74</v>
       </c>
       <c r="F112" t="s">
         <v>21</v>
@@ -6813,7 +6813,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="113" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>55</v>
       </c>
@@ -6827,7 +6827,7 @@
         <v>3</v>
       </c>
       <c r="E113" t="s">
-        <v>98</v>
+        <v>74</v>
       </c>
       <c r="F113" t="s">
         <v>17</v>
@@ -6857,7 +6857,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="114" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>56</v>
       </c>
@@ -6871,7 +6871,7 @@
         <v>3</v>
       </c>
       <c r="E114" t="s">
-        <v>98</v>
+        <v>74</v>
       </c>
       <c r="F114" t="s">
         <v>21</v>
@@ -6901,7 +6901,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="115" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>56</v>
       </c>
@@ -6915,7 +6915,7 @@
         <v>3</v>
       </c>
       <c r="E115" t="s">
-        <v>98</v>
+        <v>74</v>
       </c>
       <c r="F115" t="s">
         <v>17</v>
@@ -6945,12 +6945,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="116" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>57</v>
       </c>
       <c r="B116" s="1">
-        <v>37339</v>
+        <v>37338</v>
       </c>
       <c r="C116">
         <v>2002</v>
@@ -6959,42 +6959,42 @@
         <v>4</v>
       </c>
       <c r="E116" t="s">
-        <v>16</v>
+        <v>49</v>
       </c>
       <c r="F116" t="s">
         <v>21</v>
       </c>
       <c r="G116">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H116" t="s">
-        <v>23</v>
+        <v>80</v>
       </c>
       <c r="I116" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="J116">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="K116">
-        <v>29.25</v>
+        <v>24.8</v>
       </c>
       <c r="M116" t="s">
-        <v>23</v>
+        <v>80</v>
       </c>
       <c r="N116" t="s">
         <v>21</v>
       </c>
       <c r="O116">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="117" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="117" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>57</v>
       </c>
       <c r="B117" s="1">
-        <v>37339</v>
+        <v>37338</v>
       </c>
       <c r="C117">
         <v>2002</v>
@@ -7003,37 +7003,37 @@
         <v>4</v>
       </c>
       <c r="E117" t="s">
-        <v>16</v>
+        <v>49</v>
       </c>
       <c r="F117" t="s">
         <v>17</v>
       </c>
       <c r="G117">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="H117" t="s">
-        <v>46</v>
+        <v>92</v>
       </c>
       <c r="I117" t="s">
-        <v>26</v>
+        <v>93</v>
       </c>
       <c r="J117">
-        <v>82</v>
+        <v>69</v>
       </c>
       <c r="K117">
-        <v>19.36</v>
+        <v>20.39</v>
       </c>
       <c r="M117" t="s">
-        <v>23</v>
+        <v>80</v>
       </c>
       <c r="N117" t="s">
         <v>21</v>
       </c>
       <c r="O117">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="118" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="118" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>58</v>
       </c>
@@ -7047,7 +7047,7 @@
         <v>4</v>
       </c>
       <c r="E118" t="s">
-        <v>49</v>
+        <v>98</v>
       </c>
       <c r="F118" t="s">
         <v>21</v>
@@ -7077,7 +7077,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="119" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>58</v>
       </c>
@@ -7091,7 +7091,7 @@
         <v>4</v>
       </c>
       <c r="E119" t="s">
-        <v>49</v>
+        <v>98</v>
       </c>
       <c r="F119" t="s">
         <v>17</v>
@@ -7121,12 +7121,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="120" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>59</v>
       </c>
       <c r="B120" s="1">
-        <v>37338</v>
+        <v>37339</v>
       </c>
       <c r="C120">
         <v>2002</v>
@@ -7135,42 +7135,42 @@
         <v>4</v>
       </c>
       <c r="E120" t="s">
-        <v>74</v>
+        <v>16</v>
       </c>
       <c r="F120" t="s">
         <v>21</v>
       </c>
       <c r="G120">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H120" t="s">
-        <v>80</v>
+        <v>23</v>
       </c>
       <c r="I120" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="J120">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="K120">
-        <v>24.8</v>
+        <v>29.25</v>
       </c>
       <c r="M120" t="s">
-        <v>80</v>
+        <v>23</v>
       </c>
       <c r="N120" t="s">
         <v>21</v>
       </c>
       <c r="O120">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="121" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="121" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>59</v>
       </c>
       <c r="B121" s="1">
-        <v>37338</v>
+        <v>37339</v>
       </c>
       <c r="C121">
         <v>2002</v>
@@ -7179,37 +7179,37 @@
         <v>4</v>
       </c>
       <c r="E121" t="s">
-        <v>74</v>
+        <v>16</v>
       </c>
       <c r="F121" t="s">
         <v>17</v>
       </c>
       <c r="G121">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="H121" t="s">
-        <v>92</v>
+        <v>46</v>
       </c>
       <c r="I121" t="s">
-        <v>93</v>
+        <v>26</v>
       </c>
       <c r="J121">
-        <v>69</v>
+        <v>82</v>
       </c>
       <c r="K121">
-        <v>20.39</v>
+        <v>19.36</v>
       </c>
       <c r="M121" t="s">
-        <v>80</v>
+        <v>23</v>
       </c>
       <c r="N121" t="s">
         <v>21</v>
       </c>
       <c r="O121">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="122" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="122" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>60</v>
       </c>
@@ -7223,7 +7223,7 @@
         <v>4</v>
       </c>
       <c r="E122" t="s">
-        <v>98</v>
+        <v>74</v>
       </c>
       <c r="F122" t="s">
         <v>21</v>
@@ -7253,7 +7253,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="123" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>60</v>
       </c>
@@ -7267,7 +7267,7 @@
         <v>4</v>
       </c>
       <c r="E123" t="s">
-        <v>98</v>
+        <v>74</v>
       </c>
       <c r="F123" t="s">
         <v>17</v>
@@ -7297,7 +7297,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="124" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>61</v>
       </c>
@@ -7311,37 +7311,37 @@
         <v>5</v>
       </c>
       <c r="E124" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F124" t="s">
         <v>21</v>
       </c>
       <c r="G124">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H124" t="s">
-        <v>23</v>
+        <v>73</v>
       </c>
       <c r="I124" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="J124">
-        <v>97</v>
+        <v>64</v>
       </c>
       <c r="K124">
-        <v>29.25</v>
+        <v>26.04</v>
       </c>
       <c r="M124" t="s">
-        <v>23</v>
+        <v>80</v>
       </c>
       <c r="N124" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="O124">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="125" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+        <v>-9</v>
+      </c>
+    </row>
+    <row r="125" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>61</v>
       </c>
@@ -7355,37 +7355,37 @@
         <v>5</v>
       </c>
       <c r="E125" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F125" t="s">
         <v>17</v>
       </c>
       <c r="G125">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H125" t="s">
-        <v>101</v>
+        <v>80</v>
       </c>
       <c r="I125" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="J125">
-        <v>88</v>
+        <v>73</v>
       </c>
       <c r="K125">
-        <v>28.99</v>
+        <v>24.8</v>
       </c>
       <c r="M125" t="s">
-        <v>23</v>
+        <v>80</v>
       </c>
       <c r="N125" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="O125">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="126" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+        <v>-9</v>
+      </c>
+    </row>
+    <row r="126" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>62</v>
       </c>
@@ -7399,37 +7399,37 @@
         <v>5</v>
       </c>
       <c r="E126" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F126" t="s">
         <v>21</v>
       </c>
       <c r="G126">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H126" t="s">
-        <v>73</v>
+        <v>23</v>
       </c>
       <c r="I126" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="J126">
-        <v>64</v>
+        <v>97</v>
       </c>
       <c r="K126">
-        <v>26.04</v>
+        <v>29.25</v>
       </c>
       <c r="M126" t="s">
-        <v>80</v>
+        <v>23</v>
       </c>
       <c r="N126" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="O126">
-        <v>-9</v>
-      </c>
-    </row>
-    <row r="127" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="127" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>62</v>
       </c>
@@ -7443,37 +7443,37 @@
         <v>5</v>
       </c>
       <c r="E127" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F127" t="s">
         <v>17</v>
       </c>
       <c r="G127">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H127" t="s">
-        <v>80</v>
+        <v>101</v>
       </c>
       <c r="I127" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="J127">
-        <v>73</v>
+        <v>88</v>
       </c>
       <c r="K127">
-        <v>24.8</v>
+        <v>28.99</v>
       </c>
       <c r="M127" t="s">
-        <v>80</v>
+        <v>23</v>
       </c>
       <c r="N127" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="O127">
-        <v>-9</v>
-      </c>
-    </row>
-    <row r="128" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="128" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>63</v>
       </c>
@@ -7517,7 +7517,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="129" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>63</v>
       </c>
@@ -88335,7 +88335,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="1958" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1958" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1958">
         <v>-4</v>
       </c>
@@ -88379,7 +88379,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="1959" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1959" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1959">
         <v>-4</v>
       </c>
@@ -88423,7 +88423,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="1960" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1960" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1960">
         <v>-3</v>
       </c>
@@ -88467,7 +88467,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="1961" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1961" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1961">
         <v>-3</v>
       </c>
@@ -88511,7 +88511,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="1962" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1962" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1962">
         <v>-2</v>
       </c>
@@ -88555,7 +88555,7 @@
         <v>-4</v>
       </c>
     </row>
-    <row r="1963" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1963" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1963">
         <v>-2</v>
       </c>
@@ -88599,7 +88599,7 @@
         <v>-4</v>
       </c>
     </row>
-    <row r="1964" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1964" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1964">
         <v>-1</v>
       </c>
@@ -88643,7 +88643,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="1965" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1965" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1965">
         <v>-1</v>
       </c>
@@ -88687,7 +88687,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="1966" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1966" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1966">
         <v>1</v>
       </c>
@@ -88731,7 +88731,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="1967" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1967" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1967">
         <v>1</v>
       </c>
@@ -88775,7 +88775,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="1968" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1968" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1968">
         <v>2</v>
       </c>
@@ -88819,7 +88819,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="1969" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1969" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1969">
         <v>2</v>
       </c>
@@ -88863,7 +88863,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="1970" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1970" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1970">
         <v>3</v>
       </c>
@@ -88907,7 +88907,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="1971" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1971" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1971">
         <v>3</v>
       </c>
@@ -88951,7 +88951,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="1972" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1972" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1972">
         <v>4</v>
       </c>
@@ -88995,7 +88995,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="1973" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1973" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1973">
         <v>4</v>
       </c>
@@ -89039,7 +89039,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="1974" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1974" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1974">
         <v>5</v>
       </c>
@@ -89083,7 +89083,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="1975" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1975" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1975">
         <v>5</v>
       </c>
@@ -89127,7 +89127,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="1976" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1976" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1976">
         <v>6</v>
       </c>
@@ -89171,7 +89171,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="1977" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1977" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1977">
         <v>6</v>
       </c>
@@ -89215,7 +89215,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="1978" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1978" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1978">
         <v>7</v>
       </c>
@@ -89259,7 +89259,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="1979" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1979" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1979">
         <v>7</v>
       </c>
@@ -89303,7 +89303,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="1980" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1980" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1980">
         <v>8</v>
       </c>
@@ -89347,7 +89347,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="1981" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1981" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1981">
         <v>8</v>
       </c>
@@ -89391,7 +89391,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="1982" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1982" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1982">
         <v>9</v>
       </c>
@@ -89435,7 +89435,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="1983" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1983" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1983">
         <v>9</v>
       </c>
@@ -89479,7 +89479,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="1984" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1984" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1984">
         <v>10</v>
       </c>
@@ -89523,7 +89523,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="1985" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1985" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1985">
         <v>10</v>
       </c>
@@ -89567,7 +89567,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="1986" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1986" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1986">
         <v>11</v>
       </c>
@@ -89611,7 +89611,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="1987" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1987" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1987">
         <v>11</v>
       </c>
@@ -89655,7 +89655,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="1988" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1988" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1988">
         <v>12</v>
       </c>
@@ -89699,7 +89699,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="1989" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1989" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1989">
         <v>12</v>
       </c>
@@ -89743,7 +89743,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="1990" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1990" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1990">
         <v>13</v>
       </c>
@@ -89787,7 +89787,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="1991" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1991" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1991">
         <v>13</v>
       </c>
@@ -89831,7 +89831,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="1992" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1992" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1992">
         <v>14</v>
       </c>
@@ -89875,7 +89875,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="1993" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1993" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1993">
         <v>14</v>
       </c>
@@ -89919,7 +89919,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="1994" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1994" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1994">
         <v>15</v>
       </c>
@@ -89963,7 +89963,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="1995" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1995" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1995">
         <v>15</v>
       </c>
@@ -90007,7 +90007,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="1996" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1996" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1996">
         <v>16</v>
       </c>
@@ -90051,7 +90051,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="1997" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1997" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1997">
         <v>16</v>
       </c>
@@ -90095,7 +90095,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="1998" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1998" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1998">
         <v>17</v>
       </c>
@@ -90139,7 +90139,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="1999" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1999" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1999">
         <v>17</v>
       </c>
@@ -90183,7 +90183,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2000" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2000" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2000">
         <v>18</v>
       </c>
@@ -90227,7 +90227,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2001" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2001" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2001">
         <v>18</v>
       </c>
@@ -90271,7 +90271,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2002" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2002" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2002">
         <v>19</v>
       </c>
@@ -90315,7 +90315,7 @@
         <v>-9</v>
       </c>
     </row>
-    <row r="2003" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2003" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2003">
         <v>19</v>
       </c>
@@ -90359,7 +90359,7 @@
         <v>-9</v>
       </c>
     </row>
-    <row r="2004" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2004" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2004">
         <v>20</v>
       </c>
@@ -90403,7 +90403,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2005" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2005" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2005">
         <v>20</v>
       </c>
@@ -90447,7 +90447,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2006" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2006" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2006">
         <v>21</v>
       </c>
@@ -90491,7 +90491,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2007" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2007" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2007">
         <v>21</v>
       </c>
@@ -90535,7 +90535,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2008" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2008" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2008">
         <v>22</v>
       </c>
@@ -90579,7 +90579,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2009" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2009" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2009">
         <v>22</v>
       </c>
@@ -90623,7 +90623,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2010" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2010" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2010">
         <v>23</v>
       </c>
@@ -90667,7 +90667,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2011" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2011" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2011">
         <v>23</v>
       </c>
@@ -90711,7 +90711,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2012" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2012" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2012">
         <v>24</v>
       </c>
@@ -90755,7 +90755,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2013" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2013" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2013">
         <v>24</v>
       </c>
@@ -90799,7 +90799,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2014" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2014" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2014">
         <v>25</v>
       </c>
@@ -90843,7 +90843,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2015" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2015" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2015">
         <v>25</v>
       </c>
@@ -90887,7 +90887,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2016" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2016" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2016">
         <v>26</v>
       </c>
@@ -90931,7 +90931,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2017" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2017" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2017">
         <v>26</v>
       </c>
@@ -90975,7 +90975,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2018" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2018" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2018">
         <v>27</v>
       </c>
@@ -91019,7 +91019,7 @@
         <v>-12</v>
       </c>
     </row>
-    <row r="2019" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2019" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2019">
         <v>27</v>
       </c>
@@ -91063,7 +91063,7 @@
         <v>-12</v>
       </c>
     </row>
-    <row r="2020" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2020" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2020">
         <v>28</v>
       </c>
@@ -91107,7 +91107,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2021" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2021" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2021">
         <v>28</v>
       </c>
@@ -91151,7 +91151,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2022" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2022" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2022">
         <v>29</v>
       </c>
@@ -91195,7 +91195,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2023" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2023" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2023">
         <v>29</v>
       </c>
@@ -91239,7 +91239,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2024" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2024" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2024">
         <v>30</v>
       </c>
@@ -91283,7 +91283,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2025" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2025" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2025">
         <v>30</v>
       </c>
@@ -91327,7 +91327,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2026" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2026" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2026">
         <v>31</v>
       </c>
@@ -91371,7 +91371,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2027" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2027" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2027">
         <v>31</v>
       </c>
@@ -91415,7 +91415,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2028" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2028" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2028">
         <v>32</v>
       </c>
@@ -91459,7 +91459,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2029" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2029" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2029">
         <v>32</v>
       </c>
@@ -91503,7 +91503,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2030" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2030" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2030">
         <v>33</v>
       </c>
@@ -91547,7 +91547,7 @@
         <v>-3</v>
       </c>
     </row>
-    <row r="2031" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2031" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2031">
         <v>33</v>
       </c>
@@ -91591,7 +91591,7 @@
         <v>-3</v>
       </c>
     </row>
-    <row r="2032" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2032" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2032">
         <v>34</v>
       </c>
@@ -91635,7 +91635,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2033" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2033" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2033">
         <v>34</v>
       </c>
@@ -91679,7 +91679,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2034" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2034" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2034">
         <v>35</v>
       </c>
@@ -91723,7 +91723,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2035" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2035" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2035">
         <v>35</v>
       </c>
@@ -91767,7 +91767,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2036" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2036" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2036">
         <v>36</v>
       </c>
@@ -91811,7 +91811,7 @@
         <v>-7</v>
       </c>
     </row>
-    <row r="2037" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2037" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2037">
         <v>36</v>
       </c>
@@ -91855,7 +91855,7 @@
         <v>-7</v>
       </c>
     </row>
-    <row r="2038" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2038" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2038">
         <v>37</v>
       </c>
@@ -91899,7 +91899,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2039" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2039" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2039">
         <v>37</v>
       </c>
@@ -91943,7 +91943,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2040" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2040" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2040">
         <v>38</v>
       </c>
@@ -91987,7 +91987,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2041" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2041" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2041">
         <v>38</v>
       </c>
@@ -92031,7 +92031,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2042" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2042" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2042">
         <v>39</v>
       </c>
@@ -92075,7 +92075,7 @@
         <v>-25</v>
       </c>
     </row>
-    <row r="2043" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2043" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2043">
         <v>39</v>
       </c>
@@ -92119,7 +92119,7 @@
         <v>-25</v>
       </c>
     </row>
-    <row r="2044" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2044" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2044">
         <v>40</v>
       </c>
@@ -92163,7 +92163,7 @@
         <v>-9</v>
       </c>
     </row>
-    <row r="2045" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2045" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2045">
         <v>40</v>
       </c>
@@ -92207,7 +92207,7 @@
         <v>-9</v>
       </c>
     </row>
-    <row r="2046" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2046" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2046">
         <v>41</v>
       </c>
@@ -92251,7 +92251,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2047" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2047" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2047">
         <v>41</v>
       </c>
@@ -92295,7 +92295,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2048" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2048" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2048">
         <v>42</v>
       </c>
@@ -92339,7 +92339,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2049" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2049" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2049">
         <v>42</v>
       </c>
@@ -92383,7 +92383,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2050" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2050" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2050">
         <v>43</v>
       </c>
@@ -92427,7 +92427,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2051" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2051" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2051">
         <v>43</v>
       </c>
@@ -92471,7 +92471,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2052" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2052" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2052">
         <v>44</v>
       </c>
@@ -92515,7 +92515,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2053" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2053" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2053">
         <v>44</v>
       </c>
@@ -92559,7 +92559,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2054" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2054" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2054">
         <v>45</v>
       </c>
@@ -92603,7 +92603,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2055" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2055" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2055">
         <v>45</v>
       </c>
@@ -92647,7 +92647,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2056" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2056" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2056">
         <v>46</v>
       </c>
@@ -92691,7 +92691,7 @@
         <v>-4</v>
       </c>
     </row>
-    <row r="2057" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2057" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2057">
         <v>46</v>
       </c>
@@ -92735,7 +92735,7 @@
         <v>-4</v>
       </c>
     </row>
-    <row r="2058" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2058" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2058">
         <v>47</v>
       </c>
@@ -92779,7 +92779,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2059" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2059" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2059">
         <v>47</v>
       </c>
@@ -92823,7 +92823,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2060" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2060" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2060">
         <v>48</v>
       </c>
@@ -92867,7 +92867,7 @@
         <v>-4</v>
       </c>
     </row>
-    <row r="2061" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2061" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2061">
         <v>48</v>
       </c>
@@ -92911,7 +92911,7 @@
         <v>-4</v>
       </c>
     </row>
-    <row r="2062" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2062" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2062">
         <v>49</v>
       </c>
@@ -92955,7 +92955,7 @@
         <v>-20</v>
       </c>
     </row>
-    <row r="2063" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2063" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2063">
         <v>49</v>
       </c>
@@ -92999,7 +92999,7 @@
         <v>-20</v>
       </c>
     </row>
-    <row r="2064" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2064" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2064">
         <v>50</v>
       </c>
@@ -93046,7 +93046,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2065" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2065" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2065">
         <v>50</v>
       </c>
@@ -93093,7 +93093,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2066" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2066" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2066">
         <v>51</v>
       </c>
@@ -93137,7 +93137,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2067" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2067" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2067">
         <v>51</v>
       </c>
@@ -93181,7 +93181,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2068" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2068" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2068">
         <v>52</v>
       </c>
@@ -93225,7 +93225,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="2069" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2069" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2069">
         <v>52</v>
       </c>
@@ -93269,7 +93269,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="2070" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2070" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2070">
         <v>53</v>
       </c>
@@ -93313,7 +93313,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2071" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2071" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2071">
         <v>53</v>
       </c>
@@ -93357,7 +93357,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2072" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2072" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2072">
         <v>54</v>
       </c>
@@ -93401,7 +93401,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2073" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2073" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2073">
         <v>54</v>
       </c>
@@ -93445,7 +93445,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2074" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2074" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2074">
         <v>55</v>
       </c>
@@ -93489,7 +93489,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2075" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2075" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2075">
         <v>55</v>
       </c>
@@ -93533,7 +93533,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2076" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2076" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2076">
         <v>56</v>
       </c>
@@ -93577,7 +93577,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2077" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2077" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2077">
         <v>56</v>
       </c>
@@ -93621,7 +93621,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2078" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2078" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2078">
         <v>57</v>
       </c>
@@ -93665,7 +93665,7 @@
         <v>-7</v>
       </c>
     </row>
-    <row r="2079" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2079" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2079">
         <v>57</v>
       </c>
@@ -93709,7 +93709,7 @@
         <v>-7</v>
       </c>
     </row>
-    <row r="2080" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2080" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2080">
         <v>58</v>
       </c>
@@ -93753,7 +93753,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2081" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2081" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2081">
         <v>58</v>
       </c>
@@ -93797,7 +93797,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2082" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2082" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2082">
         <v>59</v>
       </c>
@@ -93841,7 +93841,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2083" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2083" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2083">
         <v>59</v>
       </c>
@@ -93885,7 +93885,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2084" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2084" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2084">
         <v>60</v>
       </c>
@@ -93929,7 +93929,7 @@
         <v>-14</v>
       </c>
     </row>
-    <row r="2085" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2085" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2085">
         <v>60</v>
       </c>
@@ -93973,7 +93973,7 @@
         <v>-14</v>
       </c>
     </row>
-    <row r="2086" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2086" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2086">
         <v>61</v>
       </c>
@@ -94017,7 +94017,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2087" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2087" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2087">
         <v>61</v>
       </c>
@@ -94061,7 +94061,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2088" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2088" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2088">
         <v>62</v>
       </c>
@@ -94105,7 +94105,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2089" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2089" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2089">
         <v>62</v>
       </c>
@@ -94149,7 +94149,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2090" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2090" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2090">
         <v>63</v>
       </c>
@@ -94193,7 +94193,7 @@
         <v>-6</v>
       </c>
     </row>
-    <row r="2091" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2091" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2091">
         <v>63</v>
       </c>
